--- a/mini/python_playwright/output/万科_2.xlsx
+++ b/mini/python_playwright/output/万科_2.xlsx
@@ -473,12 +473,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>万科：经营服务业务发展将进一步提速</t>
+          <t>过半上市房企手握金融资产</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>齐金钊</t>
+          <t>王锦</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -488,32 +488,32 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2023-03-31</t>
+          <t>2010-09-29</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>2023</v>
+        <v>2010</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3月30日晚，万科发布2022年年报。公司实现营业收入5038.4亿元，同比增长11.3%；归属于上市公司股东的净利润为226.2亿元，同比上升0.4%。万科表示，市场对经营性不动产的认知已逐步改变，经营服务业务创造稳定现金流的优势开始显现，经营服务业务</t>
+          <t>中粮地产出售招商银行股权补充流动资金，引发了市场关于地产商的“小金库”——金融资产到底有多少的关注。统计显示，135家房地产上市公司中，共有70家持有金融资产，覆盖面超过50%；进行证券投资的初始投资金额合计高达88.34亿元。$$信贷收紧、再融资</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>https://kns.cnki.net/kcms2/article/abstract?v=BBImVa1ypltBH6xXqYTi5zaYRK0FGk51fVvNYXyYodk7LsXwg7P9aMh4Pq59WQl7Jv67J3mDFNutKchAz0JLNzMw2oJf2n0psLLg99zBJHlFILD1Jn_FPiZRngPFo5YR&amp;uniplatform=NZKPT&amp;language=gb</t>
+          <t>https://kns.cnki.net/kcms2/article/abstract?v=2O5crrwph27cG5KL_snLEiVh8Tu1on8Vx_uaSsG4E_0IwR4ov7vV0U3TjUMMIlH5fdySNkTgcKzNrnazBUcJsm6Yn3y1VFxA2sU2-qxuyiOkflbcL3T1RDtgFlsZTvcS&amp;uniplatform=NZKPT&amp;language=gb</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>万科A拟非公开发行募资不超过150亿元</t>
+          <t>上海松江刷新单价地王纪录</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>董添</t>
+          <t>周文天</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -523,32 +523,32 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2023-02-13</t>
+          <t>2010-09-02</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>2023</v>
+        <v>2010</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2月12日晚万科A公告称，拟非公开发行A股股票募资不超过150亿元，扣除发行费用后的募集资金净额将用于中山金域国际、广州金茂万科魅力之城等项目。未来发展前景可观本次非公开发行股票的募集资金总额不超过150亿元（含本数），扣除发行费用后的募集资金净</t>
+          <t>楼板价达16488元/平方米，溢价率高达131%。9月1日，上海合生房地产开发有限公司刷新上海松江单价地王纪录。$$1日，上海两幅住宅地块松江广富林路2-5地块和祥和路2号地块分别吸引了10家和8家的竞买人。最终，上海合生房地产开发有限公司以12.</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>https://kns.cnki.net/kcms2/article/abstract?v=BBImVa1ypltBH6xXqYTi5zaYRK0FGk51fVvNYXyYodk7LsXwg7P9aKsfVPKw75KmKkIGXjeHXkbrCdbTfT6altKOVKKmZkKHQTabzUe8TM-t0ki8gNOAEFfYeczT3axL&amp;uniplatform=NZKPT&amp;language=gb</t>
+          <t>https://kns.cnki.net/kcms2/article/abstract?v=2O5crrwph26teqUIXe8ds9yuslfCH-B6pgtNq_F46te0cgfjCmGRWed0-jU1bEOoUyVwsoO3h1jeaF-nMk535eEjpRYJ6E6b19G3okcMtztFMO3W0kZ-7Q==&amp;uniplatform=NZKPT&amp;language=gb</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>楼市预期改善  “返乡置业”热度有所抬升</t>
+          <t>“中国梦工厂”创新大戏高潮迭起</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>董添</t>
+          <t>周少杰</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -558,32 +558,32 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2023-02-03</t>
+          <t>2010-08-25</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>2023</v>
+        <v>2010</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>机构近日发布的数据显示，百强房企1月份销售金额同比下降超三成。业内人士表示，受春节假期等因素影响，1月楼市表现不佳。在鼓励住房消费政策的驱动下，楼市预期出现改善，“返乡置业”热度有所抬升。出现回暖势头中指研究院数据显示，受春节假期等因素影响，20</t>
+          <t>“从一个边陲小渔村，崛起为一座千万人口的现代化大城市”，描述深圳这座城市时，几乎所有的文字都是以此作为开场白，宛如一位白发苍苍的长者在诉说着一段悠远的故事。然而，深圳塑造出这个“世界城市发展奇迹”，仅用了短短的三十年。$$当年的小渔村，如今成长为年</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>https://kns.cnki.net/kcms2/article/abstract?v=BBImVa1ypltBH6xXqYTi5zaYRK0FGk51fVvNYXyYodk7LsXwg7P9aKsfVPKw75Km14CqSUpE7QAnuRaXw4hls3OWMaO7T0MeKkZsRLJTqhhF9aZvDvRXTi_ocIS7dkKq&amp;uniplatform=NZKPT&amp;language=gb</t>
+          <t>https://kns.cnki.net/kcms2/article/abstract?v=2O5crrwph26teqUIXe8ds9yuslfCH-B6pgtNq_F46te0cgfjCmGRWZvB1BBnWSPMKr7z8Db1HKK87QBHOnfieQuuBcpLFSJqgHRdq3b9S6nuzJCyzYbFH3krA4vfp842&amp;uniplatform=NZKPT&amp;language=gb</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>头部房企11月销售回暖</t>
+          <t>半年报透露楼市风云变幻</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>董添</t>
+          <t>林喆</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -593,32 +593,32 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2022-12-08</t>
+          <t>2010-08-18</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>2022</v>
+        <v>2010</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>上市房企日前陆续披露11月销售业绩。从销售情况看，头部企业恢复相对较好。机构数据显示，11月百强房企中有近四成企业实现业绩环比增长。业内人士表示，支持企业融资的“三支箭”加快落地，房企资金压力有望得到缓解，有助于稳定市场主体预期。此外，多地继续优化楼</t>
+          <t>近期，上市房企纷纷出炉“靓丽”中报，不过，在中期业绩大增的背后，是房企流通股东和高管们对未来市场风云变幻与日俱增的分歧。已公布中报的46家A股房企</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>https://kns.cnki.net/kcms2/article/abstract?v=BBImVa1ypltBH6xXqYTi5zaYRK0FGk51fVvNYXyYodk7LsXwg7P9aGcY3rIuhsqXEIZqQzoK0V4R2byGmFbCCVrjDK-0gQ4LNgo4-gHjujAOc-dybg31r_pA9QXHjzVc&amp;uniplatform=NZKPT&amp;language=gb</t>
+          <t>https://kns.cnki.net/kcms2/article/abstract?v=2O5crrwph26teqUIXe8ds9yuslfCH-B6pgtNq_F46te0cgfjCmGRWZvB1BBnWSPMBDQVcrp1zKY-_Xvo3kGmdMIiQRtwH1bmpeYsAHjjO9rVGwVGU1JH-o8zxYR62r9i&amp;uniplatform=NZKPT&amp;language=gb</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>银行提供大额授信  优质房企感受融资暖意</t>
+          <t>万科否认收购遭银行拒贷</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>石诗语</t>
+          <t>万晶</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -628,32 +628,32 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2022-12-07</t>
+          <t>2010-08-18</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>2022</v>
+        <v>2010</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>“金融16条”发布以来，多家银行为房地产企业提供大额授信，多措并举助力房地产市场平稳健康发展。中国证券报记者梳理已披露具体授信金额的银行公告发现，目前商业银行给予房地产企业意向授信额度合计高达3.1万亿元，为房地产企业提供多元化综合金融服务。业内人士</t>
+          <t>对于外界传言“万科收购北京赢嘉中心遭到银行拒贷”一事，17日万科回应称，目前该项目融资方案进展顺利，并不存在银行拒贷的情况。$$“资金链并不紧张”$$万科北京公司还称，旗下各项目今年以来销售表现优异，上半年销售额51.8亿元，同比大幅增长11</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>https://kns.cnki.net/kcms2/article/abstract?v=BBImVa1yplsHfffPIA_l48BdB7GrzuT2trhkkj3BLMWIXSWn0AC30fZNlP2bEFGavx16av7Mrer-TB8ar8pq2AGFY0nZA3HTa8KQqFn5NVGn6GidCFO6l0KjxrpkR8kX&amp;uniplatform=NZKPT&amp;language=gb</t>
+          <t>https://kns.cnki.net/kcms2/article/abstract?v=2O5crrwph26teqUIXe8ds9yuslfCH-B6pgtNq_F46te0cgfjCmGRWZvB1BBnWSPMBuc5PrNuheSJLzxnVwZc20PhBQZxAm5xUyZNQAqKAZi3V0OVh3PDfVcufrCLW8ar&amp;uniplatform=NZKPT&amp;language=gb</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>国有大行释放“融融”暖意  房企获得多元化资金支持</t>
+          <t>地产“28星宿”运程在闪烁</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>王方圆</t>
+          <t>于萍;王锦</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -663,32 +663,32 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2022-11-25</t>
+          <t>2010-08-11</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>2022</v>
+        <v>2010</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>11月23日至11月24日期间，六家国有大型银行密集与房地产企业签署战略合作协议，提供包括信贷资金在内的多种金融支持，为促进房地产行业良性循环和平稳健康发展积极贡献力量。专家</t>
+          <t>尽管今年上半年房地产市场低迷，但是在去年楼市火爆的带动下，上市房企仍然交出了堪称靓丽的中考成绩单。截至8月10日，已经公布2010年中报的28家上市房企共实现营业收入606.89亿元，同比增长30.03%；实现净利润88.10亿元，同比增长43.05%。</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>https://kns.cnki.net/kcms2/article/abstract?v=BBImVa1yplsHfffPIA_l48BdB7GrzuT2trhkkj3BLMWIXSWn0AC30U-qg5RQD4Ey1QYZc6iu0p89h_wbOI3zczkPmYQQzCYtJMRcc-LlqUM8Zj1kSatI45s93JoJGcbX&amp;uniplatform=NZKPT&amp;language=gb</t>
+          <t>https://kns.cnki.net/kcms2/article/abstract?v=2O5crrwph25FuvkHjSmwQMPPDG4w6TyxZJjagRwXotOm-IotU1ghu4zIZedO9vytCR-_Fxbanij3m8vkMUAgwgTYBQGR-VAx550SaiSAtcombJRXBXFrYpW6g-0wGPqy&amp;uniplatform=NZKPT&amp;language=gb</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>部分房企10月销售额环比增长</t>
+          <t>房地产“三巨头”上半年业绩靓丽</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>董添</t>
+          <t>林喆</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -698,32 +698,32 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2022-11-05</t>
+          <t>2010-08-10</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>2022</v>
+        <v>2010</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>近期，上市房企陆续披露10月份销售数据。部分房企10月份销售金额实现环比增长，同时前10个月销售金额同比下滑幅度有所收窄。销售有所改善10月份，碧桂园、保利发展等头部房企销售金额环比有所增长。碧桂园11月3日发布的销售数据显示，10月，集团连</t>
+          <t>万科（000002）、保利地产（600048）和金地集团（600383）10日公布2010年度中期报告。报告期内，万科和保利地产的销售金额分别达到367.7亿元和217.55亿元，这是两公司有史以来最好的销售业绩。金地集团上半年的销售额下滑，但结算业绩增</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>https://kns.cnki.net/kcms2/article/abstract?v=BBImVa1yplsHfffPIA_l48BdB7GrzuT2trhkkj3BLMWIXSWn0AC30U-qg5RQD4EyV74MWUtQlgESJBBX8izkd5KVXaOOLADJA1TJtcReEK8jpVRLgGH4aOLiQvnP50ZV&amp;uniplatform=NZKPT&amp;language=gb</t>
+          <t>https://kns.cnki.net/kcms2/article/abstract?v=2O5crrwph25FuvkHjSmwQMPPDG4w6TyxZJjagRwXotOm-IotU1ghu4zIZedO9vytXZDt2xuF6UHj8-0DNweKPp524CDsgZTmAVB4VWdxx9HsdM3_3SsU9_dXONiq09fU&amp;uniplatform=NZKPT&amp;language=gb</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>部分房企8月销售额实现同比增长</t>
+          <t>开发商应对调控“非常道”</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>董添</t>
+          <t>周文天;林喆</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -733,32 +733,32 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2022-09-21</t>
+          <t>2010-08-04</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>2022</v>
+        <v>2010</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>近期，上市房企陆续披露8月份销售业绩，部分房企销售额实现同比增长。随着销售端逐步企稳，不少房企拿地积极性有所提高。销售企稳部分房企8月销售金额实现环比增长。2022年8月，华侨城A实现合同销售面积24.9万平方米，合同销售金额52.9亿元；2</t>
+          <t>面对宏观调控的持续打压，房地产企业施展各自的经营之道，除了绞尽脑汁加强营销、多方活动筹集资金外，一些公司也有“非常”的策略——紧跟区域规划，乘机挖央企墙脚，靠着地方资源“蹲点吃透”，成为应对行业变局的法宝。$$紧盯“规划”$$瑞银亚洲房地产研究部</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>https://kns.cnki.net/kcms2/article/abstract?v=BBImVa1yplsHfffPIA_l48BdB7GrzuT2trhkkj3BLMWIXSWn0AC30RbTY96sMaF8ZPhE0WA9OdtVrjC5olw_JjQBkzAYolb4_7yuedvUmKzV8jJh7Gaxr622rN5GJNN6&amp;uniplatform=NZKPT&amp;language=gb</t>
+          <t>https://kns.cnki.net/kcms2/article/abstract?v=2O5crrwph25FuvkHjSmwQMPPDG4w6TyxZJjagRwXotOm-IotU1ghu4zIZedO9vytk9IN1ElfQ6FXT3wzQcklww_Td6BMbm7tf2WNMopaB6lfUfz76J9E58NEYau3SEtF&amp;uniplatform=NZKPT&amp;language=gb</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>上市房企8月销售进一步分化</t>
+          <t>万科半年完成销售367.7亿元</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>董添</t>
+          <t>万晶</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -768,32 +768,32 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2022-09-07</t>
+          <t>2010-07-06</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>2022</v>
+        <v>2010</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>近期，上市房企陆续披露2022年8月销售简报，销售情况进一步分化。部分大中型房企8月销售金额虽仍处于低位，但环比已有所好转。业内人士表示，目前行业进入“金九银十”销售旺季，随着前期稳楼市政策持续显效，消费者购房预期有望好转。对于房企来说，提振销售业绩</t>
+          <t>万科A（000002）6日公告，今年上半年累计实现销售面积320.2万平米，销售金额367.7亿元，销售金额相比去年同期增长19.5%，成为目前房地产行业中唯一一家半年销售超过300亿的企业。$$6月份，万科实现销售面积85.7万平米，实现销售金额</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>https://kns.cnki.net/kcms2/article/abstract?v=BBImVa1yplsHfffPIA_l48BdB7GrzuT2trhkkj3BLMWIXSWn0AC30RbTY96sMaF8xH5tT2UYlfjzm_u1qFF9b_tySsLvMB7W1JeVET73D2uE8CYPmArj_xR7P6tp0d4T&amp;uniplatform=NZKPT&amp;language=gb</t>
+          <t>https://kns.cnki.net/kcms2/article/abstract?v=2O5crrwph25FuvkHjSmwQMPPDG4w6TyxZJjagRwXotOm-IotU1ghu799qUVWAq-B0q3sPVlztIegiPGb-849uCEnITUkRcLCi3kfg8ihKQ5aQIf0NsG2Sw==&amp;uniplatform=NZKPT&amp;language=gb</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2021年房地产行业利润率持续下行</t>
+          <t>开发商不唱同一首歌</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>武卫红</t>
+          <t>王锦;于萍;林喆;周文天</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -803,32 +803,32 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2022-04-28</t>
+          <t>2010-06-30</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>2022</v>
+        <v>2010</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>房企2021年年报披露即将收官。受房地产市场下行等因素影响，2021年房地产行业利润增速继续下行，房企利润率降至历史较低水平。机构表示，短期房地产行业利润水平仍面临压力，中长期有望逐步触底回升。头部房企毛利率下滑受房地产市场下行等不确定因素影响，</t>
+          <t>调控力度不会放松，楼市交易陷入冰封，开发商的营销策略也开始出现明显分化。坚定长期“看多”且资金充裕的房企，依然咬定“不降价”，“定价合理、项目热销”是其坚持原价销售的理由。与此同时，选择各种方式调价的开发商阵营也日益壮大；其中，有些开发商将定价权下放给区</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>https://kns.cnki.net/kcms2/article/abstract?v=BBImVa1yplsHfffPIA_l48BdB7GrzuT2trhkkj3BLMWIXSWn0AC30dkQD87tayChZWGm745gn2CDD9JP5Yty05M5TODbdmEO3aXWl5NWJOqno0zg5ANVCeveTqIjkxQ_&amp;uniplatform=NZKPT&amp;language=gb</t>
+          <t>https://kns.cnki.net/kcms2/article/abstract?v=2O5crrwph268WZ3TIoLn4C7PdGnWYDZWTQjjuVfmem5K9z79Z2lGShA1wXRDNMg0CBXf3ocaEkyddgnzgfG4UJAdjl3PyhSyOMktpYhEEm913Ewehp5m1zU3slmJYpPa&amp;uniplatform=NZKPT&amp;language=gb</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>万物云向港交所递交上市申请</t>
+          <t>上海万科否认降价20%</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>齐金钊</t>
+          <t>周文天</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -838,32 +838,32 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2022-04-02</t>
+          <t>2010-06-25</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>2022</v>
+        <v>2010</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>4月1日，万科集团子公司万物云空间科技服务股份有限公司(简称“万物云”)向港交所递交上市申请。招股书显示，万物云建立了社区空间居住消费服务、商企和城市空间综合服务、系列远程空间科技运营服务等业务模式。从2011年到2021年，万物云的总收入规模增长超过1</t>
+          <t>上海土地市场继续冷风劲吹，青浦一地块楼板价不及周边房价一半。而楼市方面，继恒大地产、绿地集团公开宣布降价促销之后，上海万科也加入“暗降”行列，不过上海万科否认降价20%。$$23日，旭辉集团股份有限公司以7.2588亿摘得青浦一地块，折合楼板价约为</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>https://kns.cnki.net/kcms2/article/abstract?v=BBImVa1yplsHfffPIA_l48BdB7GrzuT2trhkkj3BLMWIXSWn0AC30dkQD87tayChOeU_JLk9Dd6RchuRMcEWmUm_O3LDkQYUPQyZ9wbd9pH6NAVZirzirPQNM3POztUW&amp;uniplatform=NZKPT&amp;language=gb</t>
+          <t>https://kns.cnki.net/kcms2/article/abstract?v=2O5crrwph268WZ3TIoLn4C7PdGnWYDZWTQjjuVfmem5K9z79Z2lGShA1wXRDNMg013XAfLStmrEnuwoVhGgAgWjRgUV5OPNxlt7AXlHnzR4NJmFCdkll4EfIPC_4hwCM&amp;uniplatform=NZKPT&amp;language=gb</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2021年头部房企销售业绩出现分化</t>
+          <t>房地产市场“重建”开始</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>董添</t>
+          <t>万晶</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -873,32 +873,32 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>2022-01-19</t>
+          <t>2010-06-17</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>2022</v>
+        <v>2010</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>随着上市房企2021年12月销售业绩披露进入尾声，头部房企2021年销售情况浮出水面，TOP5房企中，仅融创中国、保利发展全年销售业绩出现同比增长，其余3家均出现不同程度下滑。$$整体销售出现下滑$$从第一梯队房企销售业绩看，销售整体欠佳。销售总</t>
+          <t>房地产市场在严厉调控政策的威慑下开始调整，多家房企打出降价大旗，楼市拐点是否已经来临？在对“六月份全国统一降价”传闻进行否认后，备受瞩目的万科真实的想法是什么？政策调控会不会改变地产行业的运行轨道，又将给房地产企业带来哪些考验？万科总裁郁亮近日接受了中国</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>https://kns.cnki.net/kcms2/article/abstract?v=BBImVa1yplsHfffPIA_l48BdB7GrzuT2trhkkj3BLMWIXSWn0AC30YjWcDcCOBiFEXd5T8uGnwc29cLv5UtwNrvrZP-KutWCaNFrW7KP64qsPEhYjsq1Y89uiox11ruL&amp;uniplatform=NZKPT&amp;language=gb</t>
+          <t>https://kns.cnki.net/kcms2/article/abstract?v=2O5crrwph268WZ3TIoLn4C7PdGnWYDZWTQjjuVfmem5K9z79Z2lGShA1wXRDNMg0sAcob3VOjarT3xiQasZuFJf_xJ3FFEahNl0bntK-nS7x1pw388qYjzIXnubDDe2-&amp;uniplatform=NZKPT&amp;language=gb</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>部分头部房企11月销售表现稳健</t>
+          <t>深圳新盘降价入市渐成风潮</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>董添</t>
+          <t>万晶</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -908,32 +908,32 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>2021-12-07</t>
+          <t>2010-06-09</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>2021</v>
+        <v>2010</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>近期，上市房企密集披露11月销售情况。头部房企销售相对坚挺，拿地较为积极。部分中小房企销售、拿地均明显放缓。机构认为，随着住房信贷环境逐步改善，房企年底有望冲刺业绩小高峰。$$销售分化明显$$万科A等头部房企11月销售额环比小幅上涨，并新增了开发</t>
+          <t>万科里城、万科清林径、金山碧海和十二橡树庄园四个深圳新盘近期同时降价，不少楼盘直降3000元至4000元/平方米，深圳新房市场降价已经由暗转明，渐成风潮。$$降价只为拉动销量$$6月4日和5日，万科分别连夜推出万科清林径和万科第五园四期里城新</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>https://kns.cnki.net/kcms2/article/abstract?v=BBImVa1yplsHfffPIA_l48BdB7GrzuT2trhkkj3BLMWIXSWn0AC30WZdwWbG7bf-pjcDGWjqObVPKe7zKVWyHq9ig3S-Hvtsa2gm45Nsqwtc4PMHPgiFaRQPBVY96Kn4&amp;uniplatform=NZKPT&amp;language=gb</t>
+          <t>https://kns.cnki.net/kcms2/article/abstract?v=2O5crrwph268WZ3TIoLn4C7PdGnWYDZWTQjjuVfmem5K9z79Z2lGShA1wXRDNMg04cGx6A9zMlktWsKityDlrLeuihNz7CPvOaDB1kaMFpIJAusEpd7lnwAEpkNPaYBI&amp;uniplatform=NZKPT&amp;language=gb</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>万科郁亮：房地产行业“阵痛”之后仍有机会</t>
+          <t>各子公司因地制宜定价</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>齐金钊张军</t>
+          <t>万晶;林喆</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -943,32 +943,32 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>2021-10-23</t>
+          <t>2010-06-04</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>2021</v>
+        <v>2010</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>10月22日，万科举行年度业务交流会。万科董事会主席郁亮对当前房地产行业的基本看法概括为十六个字：“尊重常识，回归常态，阵痛之后，仍有机会。”他表示，经历过政策红利、金融红利之后，房地产行业正迎来新的常态化发展阶段。在去杠杆、去金融化的行业“缩表”过程中</t>
+          <t>针对“万科6月份将在全国各地统一降价”，万科董事会秘书谭华杰表示，该报道内容不存在。谭华杰同时指出，万科始终坚持不捂盘原则，坚持用合理价格卖房原则，这个合理价格就是购房者愿意接受的价格。$$万科北京公司有关负责人3日也表示，去年下半年以来，北京等城</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>https://kns.cnki.net/kcms2/article/abstract?v=BBImVa1ypltRGC6W7l5P5rMslLaDgAiCK9Imgh-obBvUX19qxgHhGhP1rvbVrov73Oq_s3UalLVSJWXapaXNgMaSUhCVxmNI15CjmfCCxFrpwS2ycRb9huR060cCrr_Q&amp;uniplatform=NZKPT&amp;language=gb</t>
+          <t>https://kns.cnki.net/kcms2/article/abstract?v=2O5crrwph26Vd7sK4McFt0I6GdkQ3ntqrkUwhLg2J9GOfOEmKAmVvzFS84RYLIYqhTB-hgMlAhsq820_SeLFU8pt0E2kF8lDj7k2ZgfiUSP2M1KULJBm0NOvIqHjGwZZ&amp;uniplatform=NZKPT&amp;language=gb</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>深圳证券交易所初建时“惊心动魄”</t>
+          <t>上市房企  600亿再融资计划搁浅</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>禹国刚昝秀丽深圳证券交易所</t>
+          <t>朱宇</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -978,32 +978,32 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>2020-12-18</t>
+          <t>2010-05-21</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>2020</v>
+        <v>2010</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>我生在陕南，长在关中，作为土生土长的陕西人，大学毕业后能放弃不错的薪酬来到当时还是一片荒地的深圳发展，是有缘分的。$$1980年8月26日，全国人大常委会批准在深圳建立经济特区。在一位广东亲戚的鼓励下，我变卖了家里一台三洋收音机和一台14英寸黑白电视</t>
+          <t>在监管层严把审批关口、楼市调控新政重挫股价的双重打击下，今年以来A股房地产上市公司的再融资计划全部“搁浅”。事实上，由于实际股价低于增发底价，上市房企有超过600亿元的再融资计划已经处于“无效”状态。分析人士认为，在招商地产率先宣告撤销非公开发行方案后，</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>https://kns.cnki.net/kcms2/article/abstract?v=BBImVa1ypltRGC6W7l5P5rMslLaDgAiCK9Imgh-obBvUX19qxgHhGiG4ZWRito87CWPR455LO_16rHXI3X99nnA8P63v8-RWcaR31ve5-V_lQGFRya0m90I4YI_TVg9X&amp;uniplatform=NZKPT&amp;language=gb</t>
+          <t>https://kns.cnki.net/kcms2/article/abstract?v=2O5crrwph26Vd7sK4McFt0I6GdkQ3ntqrkUwhLg2J9GOfOEmKAmVv9x2pZoB7rsTUsv3yBUkUQR5I-Kb2DR_E-LurCEjkJ7s8r_KCRimmVrnX9zvmoaMaQ==&amp;uniplatform=NZKPT&amp;language=gb</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>四大门派跑马圈地  长租公寓市场如火如荼</t>
+          <t>不惧调控新政  房企北京高价拿地</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>任明杰;江钰铃</t>
+          <t>王锦;王荣</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1013,32 +1013,32 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>2018-03-22</t>
+          <t>2010-05-20</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>2018</v>
+        <v>2010</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>“大家都在抓紧时间上规模，我们今年也计划再签3万间长租公寓。”某长租公寓品牌负责人告诉中国证券报记者。2015年以来，随着“租购并举”政策风起，大型房企、中介机构、酒店集团、创业公司大举进军长租公寓市场。特别是2017年以来，随着存量房时代的到来，长租公</t>
+          <t>在北京出台房地产调控新政之后，北京新房、二手房的成交量均出现下降，但购房者的观望情绪似乎并未影响到开发商的拿地节奏和拿地热情。$$金融街（000402）、中粮地产（000031）、万科（000002）、北京建工等近日在北京举行的土地出让交易中均有斩</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>https://kns.cnki.net/kcms2/article/abstract?v=BBImVa1ypltRGC6W7l5P5rMslLaDgAiCK9Imgh-obBvUX19qxgHhGgtC6V2TG7QGkLAMOeEwTKZ06omn_o0Esu1w_fR_5knJq1dFVWP3JL3QlZIb__JAS1hPrZr1EiCf&amp;uniplatform=NZKPT&amp;language=gb</t>
+          <t>https://kns.cnki.net/kcms2/article/abstract?v=2O5crrwph26Vd7sK4McFt0I6GdkQ3ntqrkUwhLg2J9GOfOEmKAmVv9x2pZoB7rsTbicN6w4IlSP1BZ3FEC6CrdrkSaxLVCGdDs6lzKP_M0Q9H14GBsKPHg==&amp;uniplatform=NZKPT&amp;language=gb</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>A股再现举牌潮  “买家”逻辑浮出水面</t>
+          <t>房地产商火速调整三大策略</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>黄淑慧;徐金忠</t>
+          <t>林喆;于萍;万晶</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1048,32 +1048,32 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>2016-09-28</t>
+          <t>2010-05-19</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>2016</v>
+        <v>2010</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>继2015年年底的“举牌潮”之后，2016年三季度各路资金再度发力，已经有20多家上市公司被举牌。恒大介入万科股权之争、阳光保险举牌伊利股份，更是一石激起千层浪。$$“举牌潮”引发市场各方高度关注，这是“门口的野蛮人”搅动市场，是“股东积极主义”新</t>
+          <t>房地产调控“满月”，全国楼市销量锐减；地产股频破拟定增发价，股市再融资遇阻；行业景气度见顶回落，土地购置和开发热情正在下滑。面对调控重压和市场变局，部分一线房地产企业已经开始调整自身的运营策略，以应对行业寒冬。$$随行就市降价促销、中止增发融资转向</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>https://kns.cnki.net/kcms2/article/abstract?v=BBImVa1ypltRGC6W7l5P5rMslLaDgAiCK9Imgh-obBvUX19qxgHhGilnkthlxGLdPEYk8j8cKDmcyEAK7H3kkuYUGwm5zSSWptzWKZDF0O6JRZw0jvikwAfL0qyW4Ylj&amp;uniplatform=NZKPT&amp;language=gb</t>
+          <t>https://kns.cnki.net/kcms2/article/abstract?v=2O5crrwph26Vd7sK4McFt0I6GdkQ3ntqrkUwhLg2J9GOfOEmKAmVv9x2pZoB7rsTGVZQDCldeodWOdkQiLZnXV32qnT5rHmzzTyFKbUzw4I3PCCb0XheQcP69VbjYHwM&amp;uniplatform=NZKPT&amp;language=gb</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>信披合规底线不容挑战</t>
+          <t>风格转换  房企现金为王趋势抬头</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>费杨生</t>
+          <t>于萍</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1083,32 +1083,32 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>2016-08-09</t>
+          <t>2010-05-18</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>2016</v>
+        <v>2010</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>“谁到底买没买万科”成为近日资本市场关注的焦点，万科A股价亦在各种传闻中连续上涨。再联系此前“宝万华大战”中各方的明争暗斗，某种程度来说，“万科事件”演变至今，正在挑战信息披露合法合规的底线。$$“万科事件”暴露的信息披露问题主要包括两大方面。一是</t>
+          <t>五一过后，恒大地产率先祭出降价大旗，开发商响应者寥寥，这一局面随着万科新盘价格松动而出现一丝转机。一旦楼市风向标的万科开始调整楼盘价格，这意味着楼市降价的“多米诺”骨牌正悄然倒下。$$在一系列楼市调控政策出台后，房价将步入调整已经成为业内的共识。与</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>https://kns.cnki.net/kcms2/article/abstract?v=BBImVa1ypltRGC6W7l5P5rMslLaDgAiCK9Imgh-obBvUX19qxgHhGp1I0ZVXwET4Fk_ZK2Szt3QPOhrvjcvNImztKQZOJE8W5d5bsoR3RqdplICJRolM827WmmZD10i2&amp;uniplatform=NZKPT&amp;language=gb</t>
+          <t>https://kns.cnki.net/kcms2/article/abstract?v=2O5crrwph26Vd7sK4McFt0I6GdkQ3ntqrkUwhLg2J9GOfOEmKAmVv9x2pZoB7rsT8YOCWxgFn5rgcpaSFWV5AxoPJfn-7sS8DpmOOF3CB-OUa5xLmYvo-Uk9XvxGOpXT&amp;uniplatform=NZKPT&amp;language=gb</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>资金鏖战万科  两百亿筹码打出“权重热”</t>
+          <t>上海汽车苏宁电器中信证券居前三名</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>徐伟平</t>
+          <t>于萍</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1118,32 +1118,32 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>2016-07-07</t>
+          <t>2010-05-13</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>2016</v>
+        <v>2010</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>年度大戏“万科归来”本周在A股上演。万科A复牌首日一字跌停，筹码蜂拥而出。但在第二个跌停板上，宝能系大手笔增持，当日万科A虽然没有打开跌停板，但成交显著放大。$$周三大戏渐入高潮。万科A早盘低开冲高，而后快速回落，全天均在震荡，临近收盘抢筹资金涌入</t>
+          <t>中国证券报“2009年度上市公司金牛百强奖”榜单今日揭晓。上海汽车、苏宁电器和中信证券位列百强榜前三名。居第四至第十位的公司分别为：万科、格力电器、山东黄金、保利地产、民生银行、美的电器和招商银行。百强公司2009年共实现净利润8691.16亿元，占全部</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>https://kns.cnki.net/kcms2/article/abstract?v=BBImVa1ypltRGC6W7l5P5rMslLaDgAiCK9Imgh-obBvUX19qxgHhGocUh9av4FbuMif57GYvRfwWy3CPX0uXfTUqHlefycEFAoYX7cr1MefOC0bN6k_jZg8l6agiPyoY&amp;uniplatform=NZKPT&amp;language=gb</t>
+          <t>https://kns.cnki.net/kcms2/article/abstract?v=2O5crrwph25uWj2DqoYUF1O2aiIQlUcfwolMYopVI2Afq8aOLW0xJHqfp_6pCw629rGXf9zzH8kfVFkySleUWqWcplJuOneC4EHHslIChHL5eiBe8aaqM1FSRd_Z7j8g&amp;uniplatform=NZKPT&amp;language=gb</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>万科商战硝烟漫天  公司治理警钟长鸣</t>
+          <t>一线房企降价促销  区域房价有望松动</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>张莉</t>
+          <t>林喆</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1153,32 +1153,32 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>2016-06-30</t>
+          <t>2010-05-06</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>2016</v>
+        <v>2010</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>从去年“宝能系”大举收购万科股权、安邦保险抢筹进场，到近期万科重组预案遭股东方华润集团强势反对，再到万科“内部人控制”纷争四起，近一年来，在多方利益纠缠、市场人士陆续站队喊话以及监管部门介入的情况下，围绕万科股权争夺的商业版“权力游戏”似有愈演愈烈之意。</t>
+          <t>调控重压之下，一线房地产商重拾“现金为王”，通过加速周转为持续增长储备能量。5日，恒大地产（3333.HK）宣布，公司在全国的所有楼盘将统一优惠15%。恒大地产有关负责人表示，未来一段时期内，楼市低迷将不可避免；加大力度促销、快速回笼资金，不仅可以扩大市</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>https://kns.cnki.net/kcms2/article/abstract?v=BBImVa1ypltRGC6W7l5P5rMslLaDgAiCK9Imgh-obBvUX19qxgHhGrZMn1pz0XKyfLvzS01PsvlewM5hJfJKHtI-nnn1ohHAZQVUXajlYlyET2xrOJpLqhrh_7hXZ2cS&amp;uniplatform=NZKPT&amp;language=gb</t>
+          <t>https://kns.cnki.net/kcms2/article/abstract?v=2O5crrwph25uWj2DqoYUF1O2aiIQlUcfwolMYopVI2Afq8aOLW0xJHqfp_6pCw62IRtVFWc8HwQV-lhsHGMaGHe6XXtjItO0lg8hEjemAJ1AUA8cZhQ2bA==&amp;uniplatform=NZKPT&amp;language=gb</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>REITs  梦想照进现实</t>
+          <t>多家地产公司一季度业绩大增</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>张昊</t>
+          <t>王锦;牛洪军;顾鑫</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1188,32 +1188,32 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>2015-06-27</t>
+          <t>2010-04-27</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>2015</v>
+        <v>2010</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>曾经被中国房地产人士期盼已久的REITs（房地产信托投资基金），在公募基金推动下终于又向前跨出新的一步。国内首只公募REITs——鹏华前海万科REITs封闭式混合型发起式证券投资基金,于6月26日起正式发行。$$根据基金招募说明书，鹏华前海万科R</t>
+          <t>4月27日，包括万科（000002）在内的多家房地产公司公布一季报，由于去年房地产销售的火爆增加了今年一季度的结转收入，多公司业绩均出现大幅增长。其中，世联地产（002285）一季度净利润同比增90倍之多。$$不过，随着近期国家多项房地产调控政策的</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>https://kns.cnki.net/kcms2/article/abstract?v=BBImVa1ypltRGC6W7l5P5rMslLaDgAiCK9Imgh-obBvUX19qxgHhGvH4uzIU3rMzgFDAXdkqiPDSHQS5DvSFZFDcfkNSDlJotgZgVbMH-94ttExBY7n8JgDRyqlec79Y&amp;uniplatform=NZKPT&amp;language=gb</t>
+          <t>https://kns.cnki.net/kcms2/article/abstract?v=2O5crrwph25uWj2DqoYUF1O2aiIQlUcfwolMYopVI2Afq8aOLW0xJMBvuucgdCaqIZ_mFi-kUQgc62Un37BwyNu-AKwWq4eAYRwSEYJAfjatLkcv4oPKxg==&amp;uniplatform=NZKPT&amp;language=gb</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>龙头房企5月销售大增</t>
+          <t>地产板块市值蒸发877亿元</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>李香才</t>
+          <t>刘兴龙</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1223,32 +1223,32 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>2015-06-11</t>
+          <t>2010-04-20</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>2015</v>
+        <v>2010</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>万科A、保利地产、招商地产、金地集团等房企陆续公布5月销售业绩，均实现大幅增长，1-5月累计数据较去年同期也实现增长。在中央和地方层面楼市刺激政策作用之下，近期房地产市场逐渐回暖。业内人士认为，下半年楼市刺激政策或将延续，部分城市供需关系有望得以改善，尤</t>
+          <t>在调控措施接连出台的影响下，地产板块成为4月19日市场回调的“重灾区”，行业指数下跌8.14%，总市值缩水877.4亿元，万科A、保利地产和华侨城A等35只地产股股价创年内新低。$$4月19日，沪深股指大幅低开并一路下行，地产板块成为A股市场回调幅</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>https://kns.cnki.net/kcms2/article/abstract?v=BBImVa1ypltRGC6W7l5P5rMslLaDgAiCK9Imgh-obBvUX19qxgHhGvH4uzIU3rMzS3CdvU3JJnKYxJWh_n1Mn5KcCgdCVGi7YDwkahvzVrCbiD5JeU18GY9wTNu_nI0-&amp;uniplatform=NZKPT&amp;language=gb</t>
+          <t>https://kns.cnki.net/kcms2/article/abstract?v=2O5crrwph25uWj2DqoYUF1O2aiIQlUcfwolMYopVI2Afq8aOLW0xJMBvuucgdCaqFdO8OPUft--4a-FHNdeHly6VyerNwYaf7x2d5RMDHbxOWjf02tfFPQ==&amp;uniplatform=NZKPT&amp;language=gb</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>公募REITS开创基金投资新方向</t>
+          <t>手握1575亿预收款  开发商心里不慌</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>张昊</t>
+          <t>于萍;万晶</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1258,32 +1258,32 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>2015-06-11</t>
+          <t>2010-03-31</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>2015</v>
+        <v>2010</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>6月8日，鹏华前海万科REITs封闭式混合型发起式证券投资基金正式完成注册，成为国内首只获批的公募REITs基金。从投资人配置类型来看，REITs往往被海外投资人定义为股票、债券、货币之外的第四类资产。根据中国基金业协会披露的数据，2015年4月底公募基</t>
+          <t>去年楼市的火爆行情为开发商今年的业绩奠定了厚厚的基石。截至3月29日，沪深两市已有71家房地产上市公司公布了2009年年报，累计实现预收账款1575.72亿元，同比增长98.05%，大部分将在今年内转化成业绩。在业绩有保障的基础上，各家开发商纷纷加快开发</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>https://kns.cnki.net/kcms2/article/abstract?v=BBImVa1yplsP0hZaB1Xj7QvdpEo1n9cM73w8np7hSQKqYGGc2js_AEtDRs_bXOCqYm4LUVoFQZxzR8QZTFuiJmL3WDV8g1ogSbdffvSDwhrqq5HDqy8RThDb3ycKw3Q6&amp;uniplatform=NZKPT&amp;language=gb</t>
+          <t>https://kns.cnki.net/kcms2/article/abstract?v=2O5crrwph261uXGG0qXdwD8AlPTKym-gXMfXtPw9MVyCjSgR7aEDzM0DuRBqunXdWKnwxC0MAMd8i7vaOIo2_HfqMDBgXNZHi0L_cSeVbes3-c10kNewMw==&amp;uniplatform=NZKPT&amp;language=gb</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>房企结盟折射地产新格局</t>
+          <t>万科已经回到持续增长轨道</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>于萍</t>
+          <t>万晶</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1293,32 +1293,32 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>2015-05-15</t>
+          <t>2010-03-24</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>2015</v>
+        <v>2010</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>5月14日万达和万科签订战略合作框架协议，双方将展开长期性合作。如果说此前房企转型主要是自身业务拓展或整合的话，那么此次“万万”合作，标志着房企发挥各自比较优势、“结盟”转型时代的到来。在地产“新常态”下，房企转型将向着分工与协作方向发展。$$从</t>
+          <t>在3月23日举行的万科股东大会上，董事会主席王石表示，万科已经回到持续增长的轨道，并将依托住宅产业化、绿色建筑等方面的先发优势继续领跑行业。$$王石重申，两到三年的土地资源足以支撑万科的持续发展，万科将继续坚持“不囤地、不捂盘、不当地王”的“三不政</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>https://kns.cnki.net/kcms2/article/abstract?v=BBImVa1yplsP0hZaB1Xj7QvdpEo1n9cM73w8np7hSQKqYGGc2js_ACkpKDKFy4ugb0lMkrwSbkp57pmmIYv8jQMUA0ImhBUyOZ9QvyqCeuZYyQhJieztugmvGUd2umL8&amp;uniplatform=NZKPT&amp;language=gb</t>
+          <t>https://kns.cnki.net/kcms2/article/abstract?v=2O5crrwph261uXGG0qXdwD8AlPTKym-gXMfXtPw9MVyCjSgR7aEDzM0DuRBqunXd_ClIdX0JfppTQ4KAxFEBkzQvwBwZ77fzKD6TC6SBzHRPGpF-Ap_V4w==&amp;uniplatform=NZKPT&amp;language=gb</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>巨头合作震动业界  市场竞争更趋激烈</t>
+          <t>地产年报：想说爱你不容易</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>于萍</t>
+          <t>于萍;王锦</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1328,32 +1328,32 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>2015-05-15</t>
+          <t>2010-03-10</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>2015</v>
+        <v>2010</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>“一见钟情”、“门当户对”，在5月14日万达集团与万科集团的战略合作签约仪式上，万科总裁郁亮这样形容双方的合作。作为国内商业地产及住宅地产各自领域的龙头企业，“万万”合作引发了地产行业的震动，也成为房企转型值得借鉴的样本。万达集团董事长王健林透露，如果双</t>
+          <t>2009年对于开发商来说可谓大丰收之年，这一点从陆陆续续公布的房企年报中就能深刻地感受到。截至3月9日，已公布年报的30家上市房企共实现营业收入1221.33亿元，同比增长21.21%；实现净利润156.75亿元，同比增长40.18%，有6家房企的净利润</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>https://kns.cnki.net/kcms2/article/abstract?v=BBImVa1yplsP0hZaB1Xj7QvdpEo1n9cM73w8np7hSQKqYGGc2js_ACkpKDKFy4ugt6BuNeK8nYe6OqnzD1p5Zu52zgfjoaD2DZhWGbugkg6czZxy_RqhCljVSeCC3gx9&amp;uniplatform=NZKPT&amp;language=gb</t>
+          <t>https://kns.cnki.net/kcms2/article/abstract?v=2O5crrwph261uXGG0qXdwD8AlPTKym-gXMfXtPw9MVyCjSgR7aEDzM0DuRBqunXdYD5U9hiLBDFE9SFrlSxwSkaFC313ZpAesoIpxsD4kanTjVBM69t6Gw==&amp;uniplatform=NZKPT&amp;language=gb</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>房企牵手转型  “万万”要面对现实</t>
+          <t>万科去年销售额突破600亿元</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>徐学成</t>
+          <t>吴铭;万晶</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1363,32 +1363,32 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>2015-05-15</t>
+          <t>2010-03-02</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>2015</v>
+        <v>2010</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>万科、万达14日宣布，双方将通过联合拿地、合作开发的形式“强强联手”，即由万科开发项目中住宅部分，万达开发项目中商业部分，以实现优势互补。此外，双方表示将共同探讨基于现有项目进行合作开发的可能性。$$“万万没想到”中国房地产行业两大千亿级巨头的合</t>
+          <t>万科今日公布的2009年年报显示，该公司成为国内首家销售金额突破600亿元的房地产公司，业绩重返增长轨道，并再次问鼎全球住宅企业销售冠军，全年实现营业收入488.8亿元，归属上市公司股东的净利润53.3亿元，同比分别增长19.2%、32.1%，各项经营指</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>https://kns.cnki.net/kcms2/article/abstract?v=BBImVa1yplsP0hZaB1Xj7QvdpEo1n9cM73w8np7hSQKqYGGc2js_ACkpKDKFy4ugtoow2f3nWOP7WUnS4PjKNY3eYNszVJ4JcL6gj1Gl3Pt1AVzKOp3LHwhYkmL7kYdS&amp;uniplatform=NZKPT&amp;language=gb</t>
+          <t>https://kns.cnki.net/kcms2/article/abstract?v=2O5crrwph261uXGG0qXdwD8AlPTKym-gXMfXtPw9MVyCjSgR7aEDzM0DuRBqunXdHeMVpSXvCAQdWGYYnZLhgfq6hjLnVcMVyvAFy1DskWqi95ewiZQF3Q==&amp;uniplatform=NZKPT&amp;language=gb</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>王石：万科的变化刚刚开始</t>
+          <t>地产业老大的“巅峰对决”</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>于萍</t>
+          <t>李良;万晶</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1398,32 +1398,32 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>2015-03-20</t>
+          <t>2010-02-10</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>2015</v>
+        <v>2010</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>在房地产市场变革与转型的时代，作为行业龙头的万科又有了新的发展计划。在3月19日由新华网举办的思客讲堂活动中，万科集团董事会主席王石在接受中国证券报记者采访时表示，2015年万科会发生更多转变，将独立三个事业部，发展物业管理、精装修等业务。“万科的变化刚</t>
+          <t>2010年，万科能否稳坐地产商的龙头宝座？这无疑是今年地产业内最乐意于“八卦”的话题。$$这种猜测并非空穴来风。在去年一波销售狂潮后，万科在地产业的霸主地位已然遭遇来自绿城集团的强力挑战，紧随其后的，还有虎视眈眈的保利地产等一众地产大佬。而在今年1</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>https://kns.cnki.net/kcms2/article/abstract?v=BBImVa1yplsP0hZaB1Xj7QvdpEo1n9cM73w8np7hSQKqYGGc2js_ADOEhLko4b_lsbj139BK3mTaGXK8bWJ0GwhBfwv8ZoEuEpLmedT-PAq-P8-J_y0baYeMfTu04GE5&amp;uniplatform=NZKPT&amp;language=gb</t>
+          <t>https://kns.cnki.net/kcms2/article/abstract?v=2O5crrwph261uXGG0qXdwD8AlPTKym-gXMfXtPw9MVyCjSgR7aEDzHQEocP1sxj9NE4fh6wfK3GqKZ1P3QwfZhJdP-8STQiAQDohCMp6eJ7Zhml0iPR5eQ==&amp;uniplatform=NZKPT&amp;language=gb</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>技术变革“诱使”经理人创业</t>
+          <t>万科11月份销售额超52亿元</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>任明杰</t>
+          <t>杜雅文;李阳丹</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1433,32 +1433,32 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>2015-03-14</t>
+          <t>2009-12-08</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>2015</v>
+        <v>2009</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>近日，万科集团高级副总裁、明星级职业经理人毛大庆辞职创业。在两会期间“大众创业，万众创新”成为热门话题的背景下，毛大庆的举动再次引发人们对职业经理人创业的关注。业内人士指出，技术变革特别是移动互联网技术的发展无疑是“诱使”职业经理人辞职创业的最重要因素。</t>
+          <t>万科A（000002）12月8日发布销售简报，11月份公司实现销售面积52.0万平方米，销售金额52.3亿元，分别比2008年同期增长23.6%和46.5%。简报显示，今年前11个月，万科累计销售面积623.1万平方米，销售金额579.2亿元，分别比20</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>https://kns.cnki.net/kcms2/article/abstract?v=BBImVa1yplsP0hZaB1Xj7QvdpEo1n9cM73w8np7hSQKqYGGc2js_ADOEhLko4b_lgeUQDBGzFeqwptteS_8tslqrLrd3y-MHH0UP15TRwxxvlhb6ET9GTgtY3l51Zi78&amp;uniplatform=NZKPT&amp;language=gb</t>
+          <t>https://kns.cnki.net/kcms2/article/abstract?v=2O5crrwph261uXGG0qXdwD8AlPTKym-gXMfXtPw9MVyCjSgR7aEDzJQBYwvYZ_YdI6N3sF__oD94jgqFz4yRIfb0DiM1RWWHaHykjBlbdatseNdTOdNmww==&amp;uniplatform=NZKPT&amp;language=gb</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>大厨是个机器人</t>
+          <t>万科蓝山借力CBD迎来销售年</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>张昊</t>
+          <t>于萍</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1468,32 +1468,32 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>2013-11-15</t>
+          <t>2009-11-25</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>2013</v>
+        <v>2009</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>“我们这个餐厅有三位‘大厨’，一位是厨师，两位是机器人”,深圳万科城第五食堂的负责人蒙珂对中国证券报记者说。$$蒙珂管理的深圳万科城第五食堂是一间社区餐厅。与普通餐厅不同的是，万科城第五食堂不仅有掌勺的大师傅，还购买了两台炒菜机器人。“现在餐厅的菜</t>
+          <t>“蓝山1号楼的认筹活动已经结束，一期推出的144套房子都排到九百多号了！”万科蓝山的销售人员如是说。$$11月21日，中国证券报记者走访了位于北京西大望路区域的万科蓝山项目。这个主打“国际化公寓”的楼盘在入市之前就吸引了业界普遍关注。除了CBD概</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>https://kns.cnki.net/kcms2/article/abstract?v=BBImVa1yplsP0hZaB1Xj7QvdpEo1n9cM73w8np7hSQKqYGGc2js_ABayfBf85Rxszc29RAVozENZ9F7aWI4sjxIBTHvqtPz7_kvJLplqilHEtvVX44IwZjav3nMlJy20&amp;uniplatform=NZKPT&amp;language=gb</t>
+          <t>https://kns.cnki.net/kcms2/article/abstract?v=2O5crrwph27-3iMdQV8FrBvW1OaRvDHEISfemRm7K7li0NKH8sdWnbdbLm2LBBqxFhHRFYYRGb8Yzo93k-hesRp7ua8Kt-jZFG1eyTo7YImzgYhTpho82g==&amp;uniplatform=NZKPT&amp;language=gb</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>龙头房企业绩逆市飘红发出什么信号</t>
+          <t>上市公司  中国经济第一方阵</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>杨红旭上海易居房地产研究院综合研究部</t>
+          <t>谢闻麒</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1503,27 +1503,27 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>2011-06-17</t>
+          <t>2009-09-18</t>
         </is>
       </c>
       <c r="E31" t="n">
-        <v>2011</v>
+        <v>2009</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>今年1月“新国八条”出来后，极度看空市场者甚众。笔者当时认为，就全国而言，全年房屋成交量和成交价格不会明显下跌。$$近日，一线上市房企的业绩可以说明一些事实，验证一些预判。万科、保利、金地、中海等11家地产龙头都已披露5月业绩，销售金额共计542亿</t>
+          <t>1949年以来，武钢、一汽、中国远洋、中国建筑、中国中铁、中国石化、中国人寿、中国银行……一大批国有企业与共和国共同成长，在60年的风风雨雨中不断壮大，步入资本市场；$$1979年以来，万科、苏宁、新希望、雅戈尔、三一重工、海南航空、传化股份……</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>https://kns.cnki.net/kcms2/article/abstract?v=BBImVa1yplsP0hZaB1Xj7QvdpEo1n9cM73w8np7hSQKqYGGc2js_ACEuHkSnEECBBQYxMpk_RlW0ftTTUU46uLP0sJqSMTgABy2vE62Id9TUkxkgKnEmR6TVTX91hXkJ&amp;uniplatform=NZKPT&amp;language=gb</t>
+          <t>https://kns.cnki.net/kcms2/article/abstract?v=2O5crrwph27-3iMdQV8FrBvW1OaRvDHEISfemRm7K7li0NKH8sdWnUjNidH22ZgAXhm6jS1e--FJuR8EqiQgj7NOeJW1e0_y-CjsTeyuHe9Pq9HpFAYOR9fcTR1jyK7k&amp;uniplatform=NZKPT&amp;language=gb</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>土地市场降温  房价能否迎来拐点</t>
+          <t>万科  股东大会通过百亿再融资方案</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1538,32 +1538,32 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>2011-05-18</t>
+          <t>2009-09-16</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>2011</v>
+        <v>2009</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>房价依旧高位盘整，开发商抢地的火暴场面不再出现，土地市场已降温。北京、上海、广州等地不断出现土地拍卖底价成交甚至流拍的情况。有开发商认为，土地市场趋冷预示着开发商对未来房价的悲观预期，地价下跌后或迎来房价的拐点。$$底价成交频现$$土地市场降温向</t>
+          <t>9月15日下午，万科（000002）召开了2009年第一次临时股东大会，审议其以公开增发方式募集不超过112亿元资金的方案。安排了现场投票和网络投票两种方式，根据股东大会现场宣布的数据，全部六项议案的通过率都超过了99.8%。$$根据万科在8月2</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>https://kns.cnki.net/kcms2/article/abstract?v=BBImVa1yplsP0hZaB1Xj7QvdpEo1n9cM73w8np7hSQKqYGGc2js_AJwqbMlZIEJZ7ymC-FO45NRuTTCT8D96ypvE5mrd0F-7H6rhkq35L3-M0Y9T_Met-LFi7UtSvtmk&amp;uniplatform=NZKPT&amp;language=gb</t>
+          <t>https://kns.cnki.net/kcms2/article/abstract?v=2O5crrwph27-3iMdQV8FrBvW1OaRvDHEISfemRm7K7li0NKH8sdWnUjNidH22ZgAPGmJSHm7NpX38PkWopgTafCTs_lBwq48c6tHDemzQAh4IqKSPq3c-3gU_Kw0d9dV&amp;uniplatform=NZKPT&amp;language=gb</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>一线房企四月销量现拐点</t>
+          <t>四上市公司斥巨资拿地</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>汪珺</t>
+          <t>林喆;陆洲;牛洪军</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1573,32 +1573,32 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>2011-05-11</t>
+          <t>2009-09-08</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>2011</v>
+        <v>2009</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>上市房企4月份销售数据陆续出炉，万科、保利、金地等一线房企的答卷不尽如人意，销售面积和销售金额增速显著放缓或大幅下滑。分析人士认为，房企下半年销售前景仍不明朗，在销量放缓、存货攀升、资金吃紧等压力下，房地产企业或加大促销力度，以价换量。$$销量现拐</t>
+          <t>7日下午，北京中粮万科假日风景房地产开发有限公司以22亿元的总价，拍得北京房山区长阳镇（长阳镇起步区1号地）居住、文化娱乐项目用地，万科（000002）由此结束了今年以来一直未能通过招拍挂竞得北京土地的局面。$$本次挂牌出让宗地位于房山区长阳镇军</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>https://kns.cnki.net/kcms2/article/abstract?v=BBImVa1yplvn-leSyGj8-QNBX_qW9ypYAtdvgFANOY-jHZFr77OoIPnmGup1O-zYfherd89X5aXVoya7NXN101tCd6VWzXA2NpNip5_SHpT4gAM7H514O93PiXC0W_Vq&amp;uniplatform=NZKPT&amp;language=gb</t>
+          <t>https://kns.cnki.net/kcms2/article/abstract?v=2O5crrwph27-3iMdQV8FrBvW1OaRvDHEISfemRm7K7li0NKH8sdWnUjNidH22ZgAG_GiaPpZxAiLQ6A3-KWpT37A3danfak7hYk1smg8AnXB5hKVqIYtJP7t3xmW7_Yc&amp;uniplatform=NZKPT&amp;language=gb</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>津滨发展预计上半年亏损近亿元</t>
+          <t>上市房企掀起千亿融资潮</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>刘国锋</t>
+          <t>于萍;林喆</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1608,32 +1608,32 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>2011-04-27</t>
+          <t>2009-09-02</t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>2011</v>
+        <v>2009</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>津滨发展（000897）今日公告，公司预计今年上半年亏损8000万元至1亿元。这是继ST兴业和国兴地产之后，第3家预告上半年业绩亏损的地产公司。$$津滨发展同时公布一季报，公司实现营业收入2.83亿元，同比下降50.77%；归属上市公司股东的净利润</t>
+          <t>8月底，万科重磅推出的112亿元公开增发计划，将近期上市房企融资热潮推向了高峰。根据中国证券报记者统计，今年以来共有45家A股房企公布融资方案，其中，有12家公司已经完成增发,有32家公司公布了增发预案，融资规模近千亿元。$$业内人士指出，房企融</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>https://kns.cnki.net/kcms2/article/abstract?v=BBImVa1yplvn-leSyGj8-QNBX_qW9ypYAtdvgFANOY-jHZFr77OoIISlvgEKWJFzjqKmgFL5WA-uISYsrlbbLAVzUK_qxmJ7wxPeIAUKCtOhV1i3hxxlD5OY_45Z4siO&amp;uniplatform=NZKPT&amp;language=gb</t>
+          <t>https://kns.cnki.net/kcms2/article/abstract?v=2O5crrwph27-3iMdQV8FrBvW1OaRvDHEISfemRm7K7li0NKH8sdWnUjNidH22ZgAprQXP1YHQjek-9di6RwJ_EYtf9SmNDyoQeuGTF9t8tKXwREEqLsZmbBCkbR74QBe&amp;uniplatform=NZKPT&amp;language=gb</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>万科将坚持快速开发策略</t>
+          <t>万科重磅增发拟募资112亿元</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>万晶</t>
+          <t>吴铭;万晶</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -1643,32 +1643,32 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>2011-04-20</t>
+          <t>2009-08-27</t>
         </is>
       </c>
       <c r="E35" t="n">
-        <v>2011</v>
+        <v>2009</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>万科（000002）4月20日发布的一季报显示，由于一季度结算资源不多，期内实现结算收入76.7亿元，同比增长4.2%；实现营业收入79.7亿元，净利润12.1亿元，同比分别增长6.2%和7.0%。$$万科一季度实现销售面积303.8万平米，销售金</t>
+          <t>万科A（000002）8月27日宣布了再融资计划，拟公开增发A股，发行股票数量不超过招股意向书公告日万科总股本的8%，扣除发行费用后的募集资金净额不超过人民币112亿元。$$在发行方式上，万科此次发行向原A股股东全额优先配售，剩余部分向其他有意向</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>https://kns.cnki.net/kcms2/article/abstract?v=BBImVa1yplvn-leSyGj8-QNBX_qW9ypYAtdvgFANOY-jHZFr77OoIISlvgEKWJFzDBaBASH3gzCd3Ho_Ihe4FBTuRwCUZpW5_1dkJe6oUAb2gykW8v88WY-w7ttykKpg&amp;uniplatform=NZKPT&amp;language=gb</t>
+          <t>https://kns.cnki.net/kcms2/article/abstract?v=2O5crrwph27-3iMdQV8FrBvW1OaRvDHEISfemRm7K7li0NKH8sdWnYm7Df0-U-y_M519sFEAHF5lXT8a8BnOa2L1hsu6GixpHPT07AjQG-d4WWjd7DQGFg==&amp;uniplatform=NZKPT&amp;language=gb</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>307家上市公司首季净利同比增逾四成</t>
+          <t>全产业链优势凸显</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>林喆</t>
+          <t>杨志刚</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -1678,32 +1678,32 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>2011-04-20</t>
+          <t>2009-08-05</t>
         </is>
       </c>
       <c r="E36" t="n">
-        <v>2011</v>
+        <v>2009</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>截至20日，已有300多家上市公司披露2011年一季报。至中国证券报记者发稿时为止，307家上市公司一季度合计实现营业收入2368.17亿元，同比增长34.25%；实现营业利润249.08亿元，同比增长42.15%；实现归属母公司股东的净利润207.26</t>
+          <t>日前，北京建工集团击退保利、首创置地、金泰、方恒等多家知名房地产企业，以20.02亿元拿下今年北京最大的限价房用地——朝阳区王四营乡地块。业内人士分析，北京建工集团的优势在于其主营业务是建筑工程，在保障性住房领域具有明显的成本优势。$$保障性住房</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>https://kns.cnki.net/kcms2/article/abstract?v=BBImVa1yplvn-leSyGj8-QNBX_qW9ypYAtdvgFANOY-jHZFr77OoIISlvgEKWJFzuOPD2NsCyyTIoUj5SW4h9N66KENHCDUp6rZQvzecQ7ncrsuJ2vk6gpA0iZ4VUr7a&amp;uniplatform=NZKPT&amp;language=gb</t>
+          <t>https://kns.cnki.net/kcms2/article/abstract?v=2O5crrwph25vUPd0Bj8b60EV5Aq-32f__98ZVG3UUMa65KhLqsjm9MIhUSZLpnl0l7iyulcjSeP2qcgFN7CpAWLo_wYgpif8l9XyOppH97pLVyLPSuN63g==&amp;uniplatform=NZKPT&amp;language=gb</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>龙头风光不再  “另类”春风得意</t>
+          <t>上市房企开打土地储备战</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>曹阳</t>
+          <t>林喆</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -1713,27 +1713,27 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>2011-04-19</t>
+          <t>2009-07-22</t>
         </is>
       </c>
       <c r="E37" t="n">
-        <v>2011</v>
+        <v>2009</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>4月18日，在银行板块调整的背景下，地产板块引领大盘尾市翻红。截至18日，申万房地产指数2011年以来的累计涨幅高达14.97%，位居所有行业指数第二位。实际上，由于受政策掣肘，以万科为首的传统地产龙头今年以来表现平平；真正引领地产板块崛起的是“地产+X</t>
+          <t>今年二季度，楼市回暖拉动经济企稳回升，上市房企投资和拿地意愿明显升温，万科、保利、万通等大地产商屡现大手笔运作，纷纷增加土地储备和新开工面积。业内专家指出，具有多元化股权背景的上市房企在今年二季度纷纷介入土地市场，主要是看好中国经济复苏，并认为楼市回暖将</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>https://kns.cnki.net/kcms2/article/abstract?v=BBImVa1yplvn-leSyGj8-QNBX_qW9ypYAtdvgFANOY-jHZFr77OoIISlvgEKWJFzjdRH28shkPhMu7POr2zaXSM3fmBgBazMdR-3i-ItzXXMx5IyAraP0eVkL9wvCw80&amp;uniplatform=NZKPT&amp;language=gb</t>
+          <t>https://kns.cnki.net/kcms2/article/abstract?v=2O5crrwph25vUPd0Bj8b60EV5Aq-32f__98ZVG3UUMa65KhLqsjm9AJesOV9tniGX9L2eNLbXqkQhMJpmqhVBs9xEG4utwN8nqMFxT3SiwQn9zABxVuLuA==&amp;uniplatform=NZKPT&amp;language=gb</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>多数上市房企首季业绩大增</t>
+          <t>拿地决策不应押注房价暴涨预期</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -1748,32 +1748,32 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>2011-04-13</t>
+          <t>2009-07-22</t>
         </is>
       </c>
       <c r="E38" t="n">
-        <v>2011</v>
+        <v>2009</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>尽管遭到了一系列严厉房地产调控政策的影响，但多数上市房地产企业一季度销售业绩依然大幅增长，而在销售面积、销售金额增长的同时，销售均价也继续维持在高位。有专家指出，调控政策对一线城市销售影响较大，一季度销售业绩增长明显的上市房企大多是在二三线城市布局较早、</t>
+          <t>值此地产行业快速复苏、土地市场再现火热之时，万科又重新站在了舆论的风口浪尖。5、6月份公司简报显示，万科新增土地14块；7月份再购入4块地。在各地热闹的土地拍卖市场上，同样不乏万科的身影。业内纷纷质疑，万科的土地储备策略是否在5月发生重大改变，当前大举购</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>https://kns.cnki.net/kcms2/article/abstract?v=BBImVa1yplvn-leSyGj8-QNBX_qW9ypYAtdvgFANOY-jHZFr77OoIISlvgEKWJFzK80lERQ63oRJMduValhm9_bGnBt3iJMVsp_bT_SewA5YcBbwiAPTD6XL_xmdssIV&amp;uniplatform=NZKPT&amp;language=gb</t>
+          <t>https://kns.cnki.net/kcms2/article/abstract?v=2O5crrwph25vUPd0Bj8b60EV5Aq-32f__98ZVG3UUMa65KhLqsjm9AJesOV9tniGG8lNENF8FHsJNYbCqF_W6uDht60N2bjV7j24sUaD0Oemy0EmiFy1DA==&amp;uniplatform=NZKPT&amp;language=gb</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>一线房企调低2011年增长预期</t>
+          <t>北京土地战火烧向外围</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>林喆</t>
+          <t>杨志刚</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -1783,32 +1783,32 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>2011-03-24</t>
+          <t>2009-07-06</t>
         </is>
       </c>
       <c r="E39" t="n">
-        <v>2011</v>
+        <v>2009</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>截至目前，“万保招金”及部分港股地产公司均已披露2010年年报，从这些公司新年度的发展计划及行业展望看，一线开发商普遍对2011年的房地产市场持谨慎态度。调低增长预期、谨慎扩张土地储备、适度增加商业地产项目成为各大房企今年的主要选择。$$新开工意愿</t>
+          <t>北京土地市场的战火正在烧向城八区之外。近日，北京五环外靠近轨道交通线的住宅用地遭遇开发商的激烈争夺。3日，金地集团旗下的北京金地兴业房地产开发有限公司以15.62亿元的高价竞得大兴黄村新城北区16号地。$$参与竞价和参观竞价的多家开发商表示，由于</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>https://kns.cnki.net/kcms2/article/abstract?v=BBImVa1yplvn-leSyGj8-QNBX_qW9ypYAtdvgFANOY-jHZFr77OoINd0Oa6xRKQpJFeAlhq4wKe276VhGvzESEXjsR_8en98CkpwnUIBYfxzV6668AUmPTe4tYU3sTsq&amp;uniplatform=NZKPT&amp;language=gb</t>
+          <t>https://kns.cnki.net/kcms2/article/abstract?v=2O5crrwph25vUPd0Bj8b60EV5Aq-32f__98ZVG3UUMa65KhLqsjm9AJesOV9tniGifaN-WZvM_p7bqsRIuWtwOhuLqd3-wva5LwkABU47fa0ccIpHUO-p0G9DzQ-MOpu&amp;uniplatform=NZKPT&amp;language=gb</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>万科拟授予1.1亿份股票期权</t>
+          <t>昔日地王命运“冰火两重天”</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>万晶</t>
+          <t>于萍</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -1818,32 +1818,32 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>2011-03-23</t>
+          <t>2009-07-02</t>
         </is>
       </c>
       <c r="E40" t="n">
-        <v>2011</v>
+        <v>2009</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>万科A（000002）公告，拟向激励对象授予总量1.1亿份股票期权，占授予时公司股本总额的1%，计划授予的股票期权的行权价格为8.89元。公司还计划与华润集团旗下金融平台开展合作，拓宽融资渠道。$$受激励对象约占3.88%$$2007年和20</t>
+          <t>房地产市场从不缺少王者。6月30日，北京市又见证了一位新“地王”的诞生。中化方兴以40.6亿元的天价竞得广渠路15号地，刷新了北京市成交总价和楼面单价的双重纪录。所谓“时势造英雄”，昔日的地王也曾经历过辉煌，然而不断推高的地价却同时给开发商带来了巨大的成</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>https://kns.cnki.net/kcms2/article/abstract?v=BBImVa1yplvn-leSyGj8-QNBX_qW9ypYAtdvgFANOY-jHZFr77OoINd0Oa6xRKQpon-CfJ5D-dQVYTBgqMnRcT3adQyu-Ba04UlivKVmurGZWT1h0WRijqm1HIwnC43Y&amp;uniplatform=NZKPT&amp;language=gb</t>
+          <t>https://kns.cnki.net/kcms2/article/abstract?v=2O5crrwph25vUPd0Bj8b60EV5Aq-32f__98ZVG3UUMa65KhLqsjm9AJesOV9tniGDZTXVdERwbleFuqJCH-5QJsfswDeTBsy3BHT-sF7rLRtgAdB1LVGUQ==&amp;uniplatform=NZKPT&amp;language=gb</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>调控撼动高房价  降价潮悄然涌动</t>
+          <t>“金牛”领袖指点产业布局</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>万晶</t>
+          <t>陆洲</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -1853,32 +1853,32 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>2011-03-16</t>
+          <t>2009-06-29</t>
         </is>
       </c>
       <c r="E41" t="n">
-        <v>2011</v>
+        <v>2009</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>“新国八条”和地方限购政策威力开始显现，已经高位盘整了近两个月的房价出现松动，一线城市的开发商从暗中变相促销变为直接优惠降价，楼市降价潮悄然来袭。业内人士预计，由于2010年新房开工量大增，未来几个月新盘将集中上市，同时开发商资金链趋紧，房价或将步入下降</t>
+          <t>在“2008年度金牛百强上市公司高峰论坛”上，针对金融危机背景下的产业投资选择，来自万科、山东黄金、烟台万华等上市公司高管以其生动实践，与参加论坛的嘉宾们分享了“保增长、渡难关、上水平”的心得体会。$$他们普遍认为，面对金融危机，上市公司应该在保</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>https://kns.cnki.net/kcms2/article/abstract?v=BBImVa1yplvn-leSyGj8-QNBX_qW9ypYAtdvgFANOY-jHZFr77OoINd0Oa6xRKQpk3MgT1z-WvdBSJ6SHKd5JN-5p8bhYfUiKWKNudvQybhI243vctDu99uWExR8yjqt&amp;uniplatform=NZKPT&amp;language=gb</t>
+          <t>https://kns.cnki.net/kcms2/article/abstract?v=2O5crrwph25vUPd0Bj8b60EV5Aq-32f__98ZVG3UUMa65KhLqsjm9P288mvqNAcQdMP1cBP3JonpWjFDRReHOuvb4YCmv7dCJiaa-sQFLPrT-bbFg62nqen__fjZ87by&amp;uniplatform=NZKPT&amp;language=gb</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>郁亮：万科今年没有再融资计划</t>
+          <t>世茂房地产拿下厦门地王</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>万晶;于萍</t>
+          <t>杨志刚</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -1888,27 +1888,27 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>2011-03-09</t>
+          <t>2009-06-12</t>
         </is>
       </c>
       <c r="E42" t="n">
-        <v>2011</v>
+        <v>2009</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>3月8日，万科（000002）总裁郁亮表示，今年万科没有资本市场再融资计划，万科已经连续四年没有在资本市场增发融资。未来公司将继续坚持“不囤地、不捂盘、不当地王”的策略，并继续参与保障房建设。$$继续参建保障房$$面对严厉的房地产调控政策，郁</t>
+          <t>8日举行的厦门土地拍卖会上，万科和世茂房地产双双竞得地块，后者创造了厦门的“总价地王”。这场土地拍卖会气氛异常火暴，共成交8幅地块，成交总价97.15亿元。$$知情人士向记者透露，底价4.89亿元的福州台江区江滨大道北侧的商业地块将于6月26日挂</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>https://kns.cnki.net/kcms2/article/abstract?v=BBImVa1yplvn-leSyGj8-QNBX_qW9ypYAtdvgFANOY-jHZFr77OoINd0Oa6xRKQp-Uec78PIastxNnI3dQqB4e0xR5JZawZgy7KyvGRmbi9xMzS2MI8qDMjkOW74sjRK&amp;uniplatform=NZKPT&amp;language=gb</t>
+          <t>https://kns.cnki.net/kcms2/article/abstract?v=2O5crrwph24yh1LAD_ZqRQmgXxIHdGDbzE_QgzTpGR8kjtkXBfmDrzuPI8tnMr8nqTTcs7Ogst1P8zJLprzce6AKcWFZusCQNbSD9QaLKGag4rwSl_TH0g==&amp;uniplatform=NZKPT&amp;language=gb</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>万科去年净利增36.7%至72.8亿元</t>
+          <t>华南地产商“储地战”升级</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -1923,34 +1923,30 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>2011-03-08</t>
+          <t>2009-06-10</t>
         </is>
       </c>
       <c r="E43" t="n">
-        <v>2011</v>
+        <v>2009</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>万科（000002）3月8日发布2010年年报，实现营业收入507.14亿元，较2009年微增3.75%；归属上市公司股东的净利润为72.8亿元，同比增长36.65%，基本每股收益0.66元。万科还推出每10股派送人民币1.0元（含税）现金股息的分红方案</t>
+          <t>万科5月份砸下23亿元在二、三线城市一举拿下6幅地块，保利地产3.85亿元获得北京密云云水名苑项目用地，富力地产高价拍下备受关注的北京广渠门外10号地，金地集团近期通过挂牌方式以3.068亿元获得武汉市洪山区某居住用地，招商地产项目布局12个城市的项目进</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>https://kns.cnki.net/kcms2/article/abstract?v=BBImVa1ypltroM-sG4f3SROMP2BRoqOuplPQ-wOdOUDW2HS1Ev04DYTrm6cvFu2_QhskMguqV5Kz8Bk2xu46kS9QzoxcSMke7T_MG7SOWuMKqG_UHesFnxfMPIwozkog&amp;uniplatform=NZKPT&amp;language=gb</t>
+          <t>https://kns.cnki.net/kcms2/article/abstract?v=2O5crrwph24yh1LAD_ZqRQmgXxIHdGDbzE_QgzTpGR8kjtkXBfmDrzuPI8tnMr8nHNNzMRnYi07eSGlLObRm5Qvb4sxjaQmFlroRRA2Xj-BcqJd5MeheCA==&amp;uniplatform=NZKPT&amp;language=gb</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>2月万科销售额同比增142%</t>
-        </is>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>万晶</t>
-        </is>
-      </c>
+          <t>万科A(000002)定价精准优势将逐步体现</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr"/>
       <c r="C44" t="inlineStr">
         <is>
           <t>中国证券报</t>
@@ -1958,34 +1954,30 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>2011-03-04</t>
+          <t>2009-06-09</t>
         </is>
       </c>
       <c r="E44" t="n">
-        <v>2011</v>
+        <v>2009</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>万科（000002）4日公布了2月份销售报告。2月，公司实现销售面积为54.9万平方米，销售金额60.8亿元，分别比2010年同期增长159.8%和141.8%。今年1-2月，万科累计实现销售面积220.3万平方米，销售金额261.8亿元。$$万科</t>
+          <t>2009年5月份公司实现销售面积69.7万平方米，同比增长19.3%，环比增长17.14%；销售金额64亿元，同比增长19.7%，环比增加21.6%；销售均价为9197元，较08年整体销售均价8596元上升7%。申银万国发布报告给予“增持”评级。$$</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>https://kns.cnki.net/kcms2/article/abstract?v=BBImVa1ypltroM-sG4f3SROMP2BRoqOuplPQ-wOdOUDW2HS1Ev04DYTrm6cvFu2_S-6X6cy1BPlutJaEix7hMCDe9zIL2UqJxahtxU-uoFBE6b8O6A6_QvTkRQ-jl6CM&amp;uniplatform=NZKPT&amp;language=gb</t>
+          <t>https://kns.cnki.net/kcms2/article/abstract?v=2O5crrwph24yh1LAD_ZqRQmgXxIHdGDbzE_QgzTpGR8kjtkXBfmDrzuPI8tnMr8nwmVkYQOrD5JQ7_7tAn4giHKbDNh2ujAEE1lVc87PrT9eW95inT7_7A==&amp;uniplatform=NZKPT&amp;language=gb</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>三把火炙烤  地王高烧难退</t>
-        </is>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>林喆</t>
-        </is>
-      </c>
+          <t>广州证券通胀预期提升地产股投资价值</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr"/>
       <c r="C45" t="inlineStr">
         <is>
           <t>中国证券报</t>
@@ -1993,32 +1985,32 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>2011-02-23</t>
+          <t>2009-06-06</t>
         </is>
       </c>
       <c r="E45" t="n">
-        <v>2011</v>
+        <v>2009</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>权威人士透露，住房和城乡建设部正会同国土部等有关部门草拟方案，计划在今后招拍挂出让的商品住宅建设用地中提高政策性住房的配建比例；同时，有关部门将对保障房承建商的资质做出规定。$$业内人士称，新“国八条”之后，部分城市的地王纪录仍在被刷新，上海、昆明</t>
+          <t>近期全球流动性泛滥，市场资金充裕，资源类产品价格有大幅上涨趋势。预计下半年国内输入性通胀将重现，楼市价格将会推高，因此，房地产股值得持续关注。$$从国内各大城市上半年楼市的表现来看，楼市的成交量和成交金额出现明显回升，有些城市成交价格和成交量已经</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>https://kns.cnki.net/kcms2/article/abstract?v=BBImVa1ypltroM-sG4f3SROMP2BRoqOuplPQ-wOdOUDW2HS1Ev04DeI_QPMgZmrEmz4flLSLWGREhSrVKaXeqIbPPk8lZQHxuppIl9rWb2WsqQWlwOpVhlFGELBRyA_0&amp;uniplatform=NZKPT&amp;language=gb</t>
+          <t>https://kns.cnki.net/kcms2/article/abstract?v=2O5crrwph24yh1LAD_ZqRQmgXxIHdGDbzE_QgzTpGR8kjtkXBfmDrzuPI8tnMr8n4GOG6aVrOyOVrH_T0IItbEmasgVRxepqUasHld2RefwUwWnxyxj4gQ==&amp;uniplatform=NZKPT&amp;language=gb</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>开发商面临转型</t>
+          <t>土地市场交易渐趋升温</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>于萍</t>
+          <t>林喆</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -2028,32 +2020,32 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>2011-01-21</t>
+          <t>2009-05-27</t>
         </is>
       </c>
       <c r="E46" t="n">
-        <v>2011</v>
+        <v>2009</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>在近期由华本机构主办的“2011中国地产领袖年会”上，众多开发商和专家表示，2011年房地产市场的调控政策仍在继续，开发商将面临转型。$$“2011年我国房地产业将面临几大趋势，包括:刚性需求进一步加强；商品房、保障房的双轨制基本确定；保障房供应量</t>
+          <t>5月以来，主流地产商开始积极介入土地市场的“招拍挂”，一线城市的成交地价开始升温。日前，参加“2009中国（宁海）房地产高峰论坛”的专家认为，房地产市场新房开工、土地购置等指标整体而言依然不太乐观，但部分区域已出现回暖的信号；开发商对于优质地块的角逐将日</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>https://kns.cnki.net/kcms2/article/abstract?v=BBImVa1ypltroM-sG4f3SROMP2BRoqOuplPQ-wOdOUDW2HS1Ev04DSZNR6zXye0Zf8dEMpJmi52GrlnPUnTcvVC3s5aU_URkO8E5YU1Tujy_MWYj9fzNe-HTLN037kkV&amp;uniplatform=NZKPT&amp;language=gb</t>
+          <t>https://kns.cnki.net/kcms2/article/abstract?v=2O5crrwph24yh1LAD_ZqRQmgXxIHdGDbzE_QgzTpGR8kjtkXBfmDr4squ5xRrA0viiHbTNQvaVwRYpZG-DX9eLjcSLs3Ikea3cN4Nt_J05bZq5Wkl7mxDQ==&amp;uniplatform=NZKPT&amp;language=gb</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>银行地产笑脸多</t>
+          <t>优势日益向龙头公司集中</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>林喆</t>
+          <t>陈健健</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -2063,32 +2055,32 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>2011-01-13</t>
+          <t>2009-05-20</t>
         </is>
       </c>
       <c r="E47" t="n">
-        <v>2011</v>
+        <v>2009</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>据Wind统计，截至1月12日，在申银万国行业分类下的124家A股房地产公司中，40家公司公布了2010年全年业绩预告。其中，25家预增，4家续盈，预喜公司占比达72.5%。银行业中只有2家公司公布业绩预告、1家公司公布业绩快报。从前三季度业绩和全年信贷</t>
+          <t>“2008年度中证上市公司金牛百强”中，以万科为首的六家地产公司光荣上榜，其中万科荣膺百强第三名。房地产行业在百强评选中可圈可点，显示出地产龙头公司的不俗实力。而在经济危机背景下，房地产大腕们能否继续高速成长更加值得关注。$$2008年度“金牛百</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>https://kns.cnki.net/kcms2/article/abstract?v=BBImVa1ypltroM-sG4f3SROMP2BRoqOuplPQ-wOdOUDW2HS1Ev04DSZNR6zXye0ZaANZFAKgyc-Q8VFUQvDrLS6n6HJRTLndxBvRJNKQAKPd4rtMpphRbB9vyhcbcIfL&amp;uniplatform=NZKPT&amp;language=gb</t>
+          <t>https://kns.cnki.net/kcms2/article/abstract?v=2O5crrwph24yh1LAD_ZqRQmgXxIHdGDbzE_QgzTpGR8kjtkXBfmDr4squ5xRrA0vonLP92PvfPgif6UWLbwkP_DhZnfnOVMuxTxdDobaP5QXRwtGjwBMaQ==&amp;uniplatform=NZKPT&amp;language=gb</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>万科去年销售额达1081.6亿元</t>
+          <t>金牛地产十强光荣绽放</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>万晶</t>
+          <t>林喆;于萍</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -2098,32 +2090,32 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>2011-01-05</t>
+          <t>2009-05-20</t>
         </is>
       </c>
       <c r="E48" t="n">
-        <v>2011</v>
+        <v>2009</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>万科A(000002)发布的最新公告显示，2010年万科实现销售面积897.7万平方米，销售金额1081.6亿元，同比分别增长35.3%和70.5%，成为全国首个年销售额达到千亿级的住宅企业。与此同时，万科旗下的北京和深圳两家子公司年销售额也突破百亿，</t>
+          <t>春秋交替、潮落潮起。十余年来，国内房地产市场经历过“炽夏”，也体味过“严冬”；行业景气攀登过“巅峰”，也步入过“低谷”；但是，在房地产领域，总有一批房地产企业，始终沿着“成长”的轨迹发展壮大。$$大浪淘沙、业绩沉浮。这些地产企业或许踏错过开发的时</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>https://kns.cnki.net/kcms2/article/abstract?v=BBImVa1ypltroM-sG4f3SROMP2BRoqOuplPQ-wOdOUDW2HS1Ev04DSZNR6zXye0ZtyKdMdMxAJLSdrEi1Rk4O5kMWXVHhevza1doQ2A1hhifFGds4E62rMzaxqxCydyl&amp;uniplatform=NZKPT&amp;language=gb</t>
+          <t>https://kns.cnki.net/kcms2/article/abstract?v=2O5crrwph27I_opwj_Qygcpi5uM-f7a9OMxeFoDTof8Rw50jjfcV4HkYA8IEyFzRgLT93YKfqo9u7tKOXpaz_aut6DvLRmfpxdpAoxnttVWIXULZcbJ25w==&amp;uniplatform=NZKPT&amp;language=gb</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>开发商挥金如土  出让金放出天量</t>
+          <t>市场向好  香港中资地产股狂飙</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>于萍;王锦</t>
+          <t>杨志刚</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -2133,32 +2125,32 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>2010-12-29</t>
+          <t>2009-05-20</t>
         </is>
       </c>
       <c r="E49" t="n">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>2010年已进入倒计时，各地展开了新一轮供地大战。在土地市场夺地硝烟的背后，土地出让金正突飞猛进地增长。业内预计，北京市今年的土地出让金有望超过1600亿元，上海有望突破1500亿元，天津也力争达到1000亿元。京津沪三地今年实现的土地收入将在4000亿</t>
+          <t>在地产上市公司中，在香港上市的中资地产股是投资者不可忽视的一个板块，中国海外发展、华润置地等优质公司是这个板块的代表。截至昨日收盘，中国海外发展的市值为1203.5亿港元，与龙头老大万科的市值不相上下。$$绿城上涨160%！上海复地上涨110%！</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>https://kns.cnki.net/kcms2/article/abstract?v=BBImVa1ypltroM-sG4f3SROMP2BRoqOuplPQ-wOdOUDW2HS1Ev04Dfcjly9wq0zzXjDlLGLSQKOq-R6ODOc3htE9hKXd401V4LZfgj7ZXfl_SLsZiqSnl-fsJ3BcPwt_&amp;uniplatform=NZKPT&amp;language=gb</t>
+          <t>https://kns.cnki.net/kcms2/article/abstract?v=2O5crrwph27I_opwj_Qygcpi5uM-f7a9OMxeFoDTof8Rw50jjfcV4HkYA8IEyFzRSd7-wXN7JzDaGjunXW4-FqFXdwWUcwoxRagUt9aq88CPBvnar8DN4w==&amp;uniplatform=NZKPT&amp;language=gb</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>房地产业  在制度变革中寻求新平衡</t>
+          <t>万科的“零”和“壹”</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>于萍;王锦;林喆</t>
+          <t>杨志刚</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -2168,32 +2160,32 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>2010-12-28</t>
+          <t>2009-04-27</t>
         </is>
       </c>
       <c r="E50" t="n">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>在涨价和调控声中，我国房地产市场即将走过2010年。这一年，商品房销售额有望突破5万亿元，创历史新高；这一年，房企夺地大战频频上演，地王再度涌现；这一年，政府调控连出重拳，土地出让、保障房建设等制度性变革逐步启动……$$在限购、加息等抑制投资与投机</t>
+          <t>2009年万科的主题词只有两个字：“零”和“壹”。公司的解释是：“零”，既是原点，也是起点。万科将放下往日的成功，修正过去的不足，将每一天视为新的起跑点。“壹”，象征着希望，也代表行动。万科将一步一步，脚踏实地，与股东共同迎接美好的未来。$$作为</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>https://kns.cnki.net/kcms2/article/abstract?v=BBImVa1ypltroM-sG4f3SROMP2BRoqOuplPQ-wOdOUDW2HS1Ev04Dfcjly9wq0zzye3r5nMuzg6yq2g1u9JGUP_jCvY00rT_bVyUimMK4pJDmgbqZSD8yzrvx6GvmipF&amp;uniplatform=NZKPT&amp;language=gb</t>
+          <t>https://kns.cnki.net/kcms2/article/abstract?v=2O5crrwph27I_opwj_Qygcpi5uM-f7a9OMxeFoDTof8Rw50jjfcV4CrE7XZ3j4yqOgp33V4DufvRAceZ5QqduT5nv5KFbrqN86NkyzoPZUF6GI00_704-vwrPeZQq5jx&amp;uniplatform=NZKPT&amp;language=gb</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>年末房企重燃夺地大战</t>
+          <t>一季报显示四大龙头地产公司资金压力缓解</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>王锦;于萍</t>
+          <t>杨志刚</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -2203,20 +2195,20 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>2010-12-22</t>
+          <t>2009-04-27</t>
         </is>
       </c>
       <c r="E51" t="n">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>在调控“风声”最紧的2010年，当我们年末盘点销量之时，不禁要为各地产商所取得的“骄人”成绩而咋舌。据业内保守估计，2010年全国商品房销售额将有望超过5万亿元，达到5.3万亿元左右，同比增长约20%。2010年，全国GDP预计在37万亿元左右，商品房销</t>
+          <t>27日，万科（000002）公布一季报显示，公司一季度实现结算面积106.1万平方米、结算收入80.3亿元，同比分别增长32.1%和27.7%；营业收入81.6亿元，净利润7.7亿元，同比分别增长27.6%和7.1%。$$至此，万科、保利、金地、</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>https://kns.cnki.net/kcms2/article/abstract?v=BBImVa1ypltroM-sG4f3SROMP2BRoqOuplPQ-wOdOUDW2HS1Ev04Dfcjly9wq0zz77rJNoBbVjOo-8mGo5NuzBiVfpMThnHzX0eCDC8i6ZOYZk-ZdhlTXi49sNy8wPtZ&amp;uniplatform=NZKPT&amp;language=gb</t>
+          <t>https://kns.cnki.net/kcms2/article/abstract?v=2O5crrwph27I_opwj_Qygcpi5uM-f7a9OMxeFoDTof8Rw50jjfcV4CrE7XZ3j4yq8V_mbjUisGcM6IySKnEdN72eugEZtxWhBjnFAhTdcJg52ycw9jxWhA==&amp;uniplatform=NZKPT&amp;language=gb</t>
         </is>
       </c>
     </row>
